--- a/Game of Thrones.xlsx
+++ b/Game of Thrones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb7416bf720ee6d/Documentos/1)INSPER/Semestres/2 SEMESTRE/CIÊNCIAS DOS DADOS/Projeto2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\1)INSPER\Semestres\2 SEMESTRE\CIÊNCIAS DOS DADOS\Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="6A77F46AD407BEC398357E6BE0C2DC4FAB1719B6" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{DD7AAA2F-EC44-4EE1-822D-BF8D519DF38F}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="6A77F46AD407BEC398357E6BE0C2DC4FAB1719B6" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{610B4C03-6A8E-416E-8BF9-3810583F8366}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="408">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1294,10 +1294,13 @@
     <t>"eu não acredito que a juluisi inventou game of thrones" https://t.co/xb5kz9c44k</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>I</t>
+    <t>Relevância</t>
+  </si>
+  <si>
+    <t>Relevante</t>
+  </si>
+  <si>
+    <t>Irrelevante</t>
   </si>
 </sst>
 </file>
@@ -1711,26 +1714,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A284" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B327" sqref="B327"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="131.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1738,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1746,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1754,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1762,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1770,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1778,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1786,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1794,7 +1801,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1802,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1810,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1818,7 +1825,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1826,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1834,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1842,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1850,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1858,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1866,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1874,7 +1881,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1882,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1890,7 +1897,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1898,7 +1905,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1906,7 +1913,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1914,7 +1921,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1922,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1930,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1938,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1946,7 +1953,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1954,7 +1961,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1962,7 +1969,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1970,7 +1977,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1978,7 +1985,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1986,7 +1993,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1994,7 +2001,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2002,7 +2009,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2010,7 +2017,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2018,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2026,7 +2033,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2034,7 +2041,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2042,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2050,7 +2057,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2058,7 +2065,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2066,7 +2073,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2074,7 +2081,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2082,7 +2089,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2090,7 +2097,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2098,7 +2105,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2106,7 +2113,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2114,7 +2121,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2122,7 +2129,7 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2130,7 +2137,7 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2138,7 +2145,7 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2146,7 +2153,7 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2154,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2162,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2170,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2178,7 +2185,7 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2186,7 +2193,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2194,7 +2201,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2202,7 +2209,7 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2210,7 +2217,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2218,7 +2225,7 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2226,7 +2233,7 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2234,7 +2241,7 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2242,7 +2249,7 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2250,7 +2257,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2258,7 +2265,7 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2266,7 +2273,7 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2274,7 +2281,7 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2282,7 +2289,7 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2290,7 +2297,7 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2298,7 +2305,7 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2306,7 +2313,7 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2314,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2322,7 +2329,7 @@
         <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2330,7 +2337,7 @@
         <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2338,7 +2345,7 @@
         <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2346,7 +2353,7 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2354,7 +2361,7 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2362,7 +2369,7 @@
         <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2370,7 +2377,7 @@
         <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2378,7 +2385,7 @@
         <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2386,7 +2393,7 @@
         <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2394,7 +2401,7 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2402,7 +2409,7 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2410,7 +2417,7 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2418,7 +2425,7 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2426,7 +2433,7 @@
         <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2434,7 +2441,7 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2442,7 +2449,7 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2450,7 +2457,7 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2458,7 +2465,7 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2466,7 +2473,7 @@
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2474,7 +2481,7 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2482,7 +2489,7 @@
         <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2490,7 +2497,7 @@
         <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2498,7 +2505,7 @@
         <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2506,7 +2513,7 @@
         <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2514,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2522,7 +2529,7 @@
         <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -2530,7 +2537,7 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -2538,7 +2545,7 @@
         <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -2546,7 +2553,7 @@
         <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2554,7 +2561,7 @@
         <v>94</v>
       </c>
       <c r="B105" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2562,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2570,7 +2577,7 @@
         <v>95</v>
       </c>
       <c r="B107" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2578,7 +2585,7 @@
         <v>96</v>
       </c>
       <c r="B108" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -2586,7 +2593,7 @@
         <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2594,7 +2601,7 @@
         <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -2602,7 +2609,7 @@
         <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2610,7 +2617,7 @@
         <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2618,7 +2625,7 @@
         <v>100</v>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2626,7 +2633,7 @@
         <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2634,7 +2641,7 @@
         <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2642,7 +2649,7 @@
         <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2650,7 +2657,7 @@
         <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2658,7 +2665,7 @@
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2666,7 +2673,7 @@
         <v>105</v>
       </c>
       <c r="B119" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2674,7 +2681,7 @@
         <v>106</v>
       </c>
       <c r="B120" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2682,7 +2689,7 @@
         <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2690,7 +2697,7 @@
         <v>108</v>
       </c>
       <c r="B122" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2698,7 +2705,7 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2706,7 +2713,7 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2714,7 +2721,7 @@
         <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2722,7 +2729,7 @@
         <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2730,7 +2737,7 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2738,7 +2745,7 @@
         <v>111</v>
       </c>
       <c r="B128" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2746,7 +2753,7 @@
         <v>112</v>
       </c>
       <c r="B129" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2754,7 +2761,7 @@
         <v>113</v>
       </c>
       <c r="B130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2762,7 +2769,7 @@
         <v>114</v>
       </c>
       <c r="B131" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2770,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2778,7 +2785,7 @@
         <v>115</v>
       </c>
       <c r="B133" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2786,7 +2793,7 @@
         <v>116</v>
       </c>
       <c r="B134" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2794,7 +2801,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2802,7 +2809,7 @@
         <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2810,7 +2817,7 @@
         <v>117</v>
       </c>
       <c r="B137" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2818,7 +2825,7 @@
         <v>118</v>
       </c>
       <c r="B138" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2826,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="B139" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2834,7 +2841,7 @@
         <v>119</v>
       </c>
       <c r="B140" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2842,7 +2849,7 @@
         <v>120</v>
       </c>
       <c r="B141" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2850,7 +2857,7 @@
         <v>121</v>
       </c>
       <c r="B142" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2858,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2866,7 +2873,7 @@
         <v>122</v>
       </c>
       <c r="B144" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2874,7 +2881,7 @@
         <v>123</v>
       </c>
       <c r="B145" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2882,7 +2889,7 @@
         <v>124</v>
       </c>
       <c r="B146" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2890,7 +2897,7 @@
         <v>125</v>
       </c>
       <c r="B147" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2898,7 +2905,7 @@
         <v>126</v>
       </c>
       <c r="B148" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2906,7 +2913,7 @@
         <v>127</v>
       </c>
       <c r="B149" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2914,7 +2921,7 @@
         <v>128</v>
       </c>
       <c r="B150" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2922,7 +2929,7 @@
         <v>129</v>
       </c>
       <c r="B151" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2930,7 +2937,7 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2938,7 +2945,7 @@
         <v>130</v>
       </c>
       <c r="B153" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2946,7 +2953,7 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2954,7 +2961,7 @@
         <v>131</v>
       </c>
       <c r="B155" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2962,7 +2969,7 @@
         <v>132</v>
       </c>
       <c r="B156" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2970,7 +2977,7 @@
         <v>133</v>
       </c>
       <c r="B157" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2978,7 +2985,7 @@
         <v>134</v>
       </c>
       <c r="B158" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -2986,7 +2993,7 @@
         <v>135</v>
       </c>
       <c r="B159" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -2994,7 +3001,7 @@
         <v>136</v>
       </c>
       <c r="B160" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3002,7 +3009,7 @@
         <v>137</v>
       </c>
       <c r="B161" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3010,7 +3017,7 @@
         <v>138</v>
       </c>
       <c r="B162" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3018,7 +3025,7 @@
         <v>139</v>
       </c>
       <c r="B163" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -3026,7 +3033,7 @@
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -3034,7 +3041,7 @@
         <v>140</v>
       </c>
       <c r="B165" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -3042,7 +3049,7 @@
         <v>141</v>
       </c>
       <c r="B166" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3050,7 +3057,7 @@
         <v>142</v>
       </c>
       <c r="B167" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3058,7 +3065,7 @@
         <v>143</v>
       </c>
       <c r="B168" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -3066,7 +3073,7 @@
         <v>144</v>
       </c>
       <c r="B169" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3074,7 +3081,7 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -3082,7 +3089,7 @@
         <v>145</v>
       </c>
       <c r="B171" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -3090,7 +3097,7 @@
         <v>146</v>
       </c>
       <c r="B172" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -3098,7 +3105,7 @@
         <v>88</v>
       </c>
       <c r="B173" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -3106,7 +3113,7 @@
         <v>147</v>
       </c>
       <c r="B174" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -3114,7 +3121,7 @@
         <v>148</v>
       </c>
       <c r="B175" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3122,7 +3129,7 @@
         <v>149</v>
       </c>
       <c r="B176" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -3130,7 +3137,7 @@
         <v>150</v>
       </c>
       <c r="B177" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3138,7 +3145,7 @@
         <v>151</v>
       </c>
       <c r="B178" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -3146,7 +3153,7 @@
         <v>152</v>
       </c>
       <c r="B179" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -3154,7 +3161,7 @@
         <v>153</v>
       </c>
       <c r="B180" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3162,7 +3169,7 @@
         <v>154</v>
       </c>
       <c r="B181" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3170,7 +3177,7 @@
         <v>155</v>
       </c>
       <c r="B182" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3178,7 +3185,7 @@
         <v>93</v>
       </c>
       <c r="B183" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3186,7 +3193,7 @@
         <v>131</v>
       </c>
       <c r="B184" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -3194,7 +3201,7 @@
         <v>156</v>
       </c>
       <c r="B185" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3202,7 +3209,7 @@
         <v>157</v>
       </c>
       <c r="B186" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -3210,7 +3217,7 @@
         <v>158</v>
       </c>
       <c r="B187" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3218,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3226,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -3234,7 +3241,7 @@
         <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,7 +3249,7 @@
         <v>159</v>
       </c>
       <c r="B191" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3250,7 +3257,7 @@
         <v>40</v>
       </c>
       <c r="B192" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3258,7 +3265,7 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3266,7 +3273,7 @@
         <v>160</v>
       </c>
       <c r="B194" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3274,7 +3281,7 @@
         <v>161</v>
       </c>
       <c r="B195" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -3282,7 +3289,7 @@
         <v>162</v>
       </c>
       <c r="B196" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3290,7 +3297,7 @@
         <v>157</v>
       </c>
       <c r="B197" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3298,7 +3305,7 @@
         <v>163</v>
       </c>
       <c r="B198" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -3306,7 +3313,7 @@
         <v>164</v>
       </c>
       <c r="B199" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -3314,7 +3321,7 @@
         <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -3322,7 +3329,7 @@
         <v>166</v>
       </c>
       <c r="B201" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -3330,7 +3337,7 @@
         <v>167</v>
       </c>
       <c r="B202" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3338,7 +3345,7 @@
         <v>168</v>
       </c>
       <c r="B203" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3346,7 +3353,7 @@
         <v>169</v>
       </c>
       <c r="B204" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3354,7 +3361,7 @@
         <v>170</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3362,7 +3369,7 @@
         <v>171</v>
       </c>
       <c r="B206" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3370,7 +3377,7 @@
         <v>172</v>
       </c>
       <c r="B207" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3378,7 +3385,7 @@
         <v>173</v>
       </c>
       <c r="B208" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3386,7 +3393,7 @@
         <v>174</v>
       </c>
       <c r="B209" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3394,7 +3401,7 @@
         <v>175</v>
       </c>
       <c r="B210" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -3402,7 +3409,7 @@
         <v>176</v>
       </c>
       <c r="B211" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3410,7 +3417,7 @@
         <v>177</v>
       </c>
       <c r="B212" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -3418,7 +3425,7 @@
         <v>178</v>
       </c>
       <c r="B213" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3426,7 +3433,7 @@
         <v>179</v>
       </c>
       <c r="B214" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -3434,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3442,7 +3449,7 @@
         <v>180</v>
       </c>
       <c r="B216" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3450,7 +3457,7 @@
         <v>181</v>
       </c>
       <c r="B217" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -3458,7 +3465,7 @@
         <v>182</v>
       </c>
       <c r="B218" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3466,7 +3473,7 @@
         <v>183</v>
       </c>
       <c r="B219" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3474,7 +3481,7 @@
         <v>184</v>
       </c>
       <c r="B220" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -3482,7 +3489,7 @@
         <v>185</v>
       </c>
       <c r="B221" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -3490,7 +3497,7 @@
         <v>186</v>
       </c>
       <c r="B222" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -3498,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -3506,7 +3513,7 @@
         <v>187</v>
       </c>
       <c r="B224" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -3514,7 +3521,7 @@
         <v>188</v>
       </c>
       <c r="B225" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -3522,7 +3529,7 @@
         <v>189</v>
       </c>
       <c r="B226" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -3530,7 +3537,7 @@
         <v>190</v>
       </c>
       <c r="B227" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -3538,7 +3545,7 @@
         <v>191</v>
       </c>
       <c r="B228" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -3546,7 +3553,7 @@
         <v>192</v>
       </c>
       <c r="B229" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -3554,7 +3561,7 @@
         <v>193</v>
       </c>
       <c r="B230" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -3562,7 +3569,7 @@
         <v>194</v>
       </c>
       <c r="B231" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -3570,7 +3577,7 @@
         <v>157</v>
       </c>
       <c r="B232" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3578,7 +3585,7 @@
         <v>19</v>
       </c>
       <c r="B233" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -3586,7 +3593,7 @@
         <v>195</v>
       </c>
       <c r="B234" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -3594,7 +3601,7 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -3602,7 +3609,7 @@
         <v>196</v>
       </c>
       <c r="B236" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -3610,7 +3617,7 @@
         <v>80</v>
       </c>
       <c r="B237" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -3618,7 +3625,7 @@
         <v>197</v>
       </c>
       <c r="B238" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -3626,7 +3633,7 @@
         <v>198</v>
       </c>
       <c r="B239" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -3634,7 +3641,7 @@
         <v>199</v>
       </c>
       <c r="B240" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -3642,7 +3649,7 @@
         <v>200</v>
       </c>
       <c r="B241" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -3650,7 +3657,7 @@
         <v>201</v>
       </c>
       <c r="B242" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3658,7 +3665,7 @@
         <v>202</v>
       </c>
       <c r="B243" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -3666,7 +3673,7 @@
         <v>203</v>
       </c>
       <c r="B244" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -3674,7 +3681,7 @@
         <v>204</v>
       </c>
       <c r="B245" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -3682,7 +3689,7 @@
         <v>205</v>
       </c>
       <c r="B246" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -3690,7 +3697,7 @@
         <v>19</v>
       </c>
       <c r="B247" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -3698,7 +3705,7 @@
         <v>206</v>
       </c>
       <c r="B248" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -3706,7 +3713,7 @@
         <v>207</v>
       </c>
       <c r="B249" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -3714,7 +3721,7 @@
         <v>208</v>
       </c>
       <c r="B250" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -3722,7 +3729,7 @@
         <v>209</v>
       </c>
       <c r="B251" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -3730,7 +3737,7 @@
         <v>210</v>
       </c>
       <c r="B252" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -3738,7 +3745,7 @@
         <v>211</v>
       </c>
       <c r="B253" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -3746,7 +3753,7 @@
         <v>212</v>
       </c>
       <c r="B254" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -3754,7 +3761,7 @@
         <v>213</v>
       </c>
       <c r="B255" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -3762,7 +3769,7 @@
         <v>214</v>
       </c>
       <c r="B256" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -3770,7 +3777,7 @@
         <v>215</v>
       </c>
       <c r="B257" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -3778,7 +3785,7 @@
         <v>216</v>
       </c>
       <c r="B258" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -3786,7 +3793,7 @@
         <v>217</v>
       </c>
       <c r="B259" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -3794,7 +3801,7 @@
         <v>8</v>
       </c>
       <c r="B260" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -3802,7 +3809,7 @@
         <v>157</v>
       </c>
       <c r="B261" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -3810,7 +3817,7 @@
         <v>218</v>
       </c>
       <c r="B262" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -3818,7 +3825,7 @@
         <v>219</v>
       </c>
       <c r="B263" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -3826,7 +3833,7 @@
         <v>220</v>
       </c>
       <c r="B264" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -3834,7 +3841,7 @@
         <v>221</v>
       </c>
       <c r="B265" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -3842,7 +3849,7 @@
         <v>222</v>
       </c>
       <c r="B266" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -3850,7 +3857,7 @@
         <v>19</v>
       </c>
       <c r="B267" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -3858,7 +3865,7 @@
         <v>223</v>
       </c>
       <c r="B268" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -3866,7 +3873,7 @@
         <v>224</v>
       </c>
       <c r="B269" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -3874,7 +3881,7 @@
         <v>225</v>
       </c>
       <c r="B270" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -3882,7 +3889,7 @@
         <v>226</v>
       </c>
       <c r="B271" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -3890,7 +3897,7 @@
         <v>227</v>
       </c>
       <c r="B272" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -3898,7 +3905,7 @@
         <v>20</v>
       </c>
       <c r="B273" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -3906,7 +3913,7 @@
         <v>19</v>
       </c>
       <c r="B274" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -3914,7 +3921,7 @@
         <v>228</v>
       </c>
       <c r="B275" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -3922,7 +3929,7 @@
         <v>229</v>
       </c>
       <c r="B276" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -3930,7 +3937,7 @@
         <v>230</v>
       </c>
       <c r="B277" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -3938,7 +3945,7 @@
         <v>231</v>
       </c>
       <c r="B278" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -3946,7 +3953,7 @@
         <v>88</v>
       </c>
       <c r="B279" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -3954,7 +3961,7 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -3962,7 +3969,7 @@
         <v>19</v>
       </c>
       <c r="B281" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -3970,7 +3977,7 @@
         <v>232</v>
       </c>
       <c r="B282" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -3978,7 +3985,7 @@
         <v>233</v>
       </c>
       <c r="B283" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -3986,7 +3993,7 @@
         <v>234</v>
       </c>
       <c r="B284" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -3994,7 +4001,7 @@
         <v>235</v>
       </c>
       <c r="B285" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4002,7 +4009,7 @@
         <v>236</v>
       </c>
       <c r="B286" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4010,7 +4017,7 @@
         <v>237</v>
       </c>
       <c r="B287" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4018,7 +4025,7 @@
         <v>19</v>
       </c>
       <c r="B288" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -4026,7 +4033,7 @@
         <v>238</v>
       </c>
       <c r="B289" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4034,7 +4041,7 @@
         <v>239</v>
       </c>
       <c r="B290" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -4042,7 +4049,7 @@
         <v>240</v>
       </c>
       <c r="B291" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4050,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4058,7 +4065,7 @@
         <v>241</v>
       </c>
       <c r="B293" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4066,7 +4073,7 @@
         <v>242</v>
       </c>
       <c r="B294" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -4074,7 +4081,7 @@
         <v>243</v>
       </c>
       <c r="B295" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -4082,7 +4089,7 @@
         <v>244</v>
       </c>
       <c r="B296" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -4090,7 +4097,7 @@
         <v>245</v>
       </c>
       <c r="B297" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -4098,7 +4105,7 @@
         <v>246</v>
       </c>
       <c r="B298" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -4106,7 +4113,7 @@
         <v>19</v>
       </c>
       <c r="B299" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -4114,7 +4121,7 @@
         <v>247</v>
       </c>
       <c r="B300" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -4122,7 +4129,7 @@
         <v>248</v>
       </c>
       <c r="B301" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4135,26 +4142,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="127.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4162,7 +4173,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4170,7 +4181,7 @@
         <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4178,7 +4189,7 @@
         <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4186,7 +4197,7 @@
         <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4194,7 +4205,7 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4202,7 +4213,7 @@
         <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4210,7 +4221,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4218,7 +4229,7 @@
         <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4226,7 +4237,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4234,7 +4245,7 @@
         <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4242,7 +4253,7 @@
         <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4250,7 +4261,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4258,7 +4269,7 @@
         <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4266,7 +4277,7 @@
         <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4274,7 +4285,7 @@
         <v>260</v>
       </c>
       <c r="B17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4282,7 +4293,7 @@
         <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4290,7 +4301,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4298,7 +4309,7 @@
         <v>262</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4306,7 +4317,7 @@
         <v>263</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4314,7 +4325,7 @@
         <v>264</v>
       </c>
       <c r="B22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4322,7 +4333,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4330,7 +4341,7 @@
         <v>265</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4338,7 +4349,7 @@
         <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4346,7 +4357,7 @@
         <v>267</v>
       </c>
       <c r="B26" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4354,7 +4365,7 @@
         <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4362,7 +4373,7 @@
         <v>269</v>
       </c>
       <c r="B28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4370,7 +4381,7 @@
         <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4378,7 +4389,7 @@
         <v>271</v>
       </c>
       <c r="B30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4386,7 +4397,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4394,7 +4405,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4402,7 +4413,7 @@
         <v>272</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4410,7 +4421,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4418,7 +4429,7 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -4426,7 +4437,7 @@
         <v>273</v>
       </c>
       <c r="B36" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4434,7 +4445,7 @@
         <v>274</v>
       </c>
       <c r="B37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -4442,7 +4453,7 @@
         <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -4450,7 +4461,7 @@
         <v>276</v>
       </c>
       <c r="B39" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -4458,7 +4469,7 @@
         <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4466,7 +4477,7 @@
         <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -4474,7 +4485,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -4482,7 +4493,7 @@
         <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4490,7 +4501,7 @@
         <v>279</v>
       </c>
       <c r="B44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4498,7 +4509,7 @@
         <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -4506,7 +4517,7 @@
         <v>281</v>
       </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -4514,7 +4525,7 @@
         <v>282</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -4522,7 +4533,7 @@
         <v>283</v>
       </c>
       <c r="B48" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -4530,7 +4541,7 @@
         <v>284</v>
       </c>
       <c r="B49" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4538,7 +4549,7 @@
         <v>285</v>
       </c>
       <c r="B50" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4546,7 +4557,7 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4554,7 +4565,7 @@
         <v>286</v>
       </c>
       <c r="B52" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4562,7 +4573,7 @@
         <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4570,7 +4581,7 @@
         <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -4578,7 +4589,7 @@
         <v>289</v>
       </c>
       <c r="B55" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4586,7 +4597,7 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4594,7 +4605,7 @@
         <v>290</v>
       </c>
       <c r="B57" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -4602,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4610,7 +4621,7 @@
         <v>291</v>
       </c>
       <c r="B59" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4618,7 +4629,7 @@
         <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4626,7 +4637,7 @@
         <v>293</v>
       </c>
       <c r="B61" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -4634,7 +4645,7 @@
         <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -4642,7 +4653,7 @@
         <v>294</v>
       </c>
       <c r="B63" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -4650,7 +4661,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -4658,7 +4669,7 @@
         <v>295</v>
       </c>
       <c r="B65" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -4666,7 +4677,7 @@
         <v>296</v>
       </c>
       <c r="B66" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -4674,7 +4685,7 @@
         <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -4682,7 +4693,7 @@
         <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -4690,7 +4701,7 @@
         <v>298</v>
       </c>
       <c r="B69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -4698,7 +4709,7 @@
         <v>299</v>
       </c>
       <c r="B70" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -4706,7 +4717,7 @@
         <v>300</v>
       </c>
       <c r="B71" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -4714,7 +4725,7 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -4722,7 +4733,7 @@
         <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4730,7 +4741,7 @@
         <v>302</v>
       </c>
       <c r="B74" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -4738,7 +4749,7 @@
         <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -4746,7 +4757,7 @@
         <v>303</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4754,7 +4765,7 @@
         <v>304</v>
       </c>
       <c r="B77" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4762,7 +4773,7 @@
         <v>305</v>
       </c>
       <c r="B78" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4770,7 +4781,7 @@
         <v>306</v>
       </c>
       <c r="B79" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4778,7 +4789,7 @@
         <v>307</v>
       </c>
       <c r="B80" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4786,7 +4797,7 @@
         <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4794,7 +4805,7 @@
         <v>309</v>
       </c>
       <c r="B82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4802,7 +4813,7 @@
         <v>310</v>
       </c>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4810,7 +4821,7 @@
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -4818,7 +4829,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4826,7 +4837,7 @@
         <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4834,7 +4845,7 @@
         <v>312</v>
       </c>
       <c r="B87" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4842,7 +4853,7 @@
         <v>313</v>
       </c>
       <c r="B88" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4850,7 +4861,7 @@
         <v>314</v>
       </c>
       <c r="B89" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4858,7 +4869,7 @@
         <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4866,7 +4877,7 @@
         <v>315</v>
       </c>
       <c r="B91" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4874,7 +4885,7 @@
         <v>316</v>
       </c>
       <c r="B92" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -4882,7 +4893,7 @@
         <v>317</v>
       </c>
       <c r="B93" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -4890,7 +4901,7 @@
         <v>318</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4898,7 +4909,7 @@
         <v>319</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -4906,7 +4917,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4914,7 +4925,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4922,7 +4933,7 @@
         <v>320</v>
       </c>
       <c r="B98" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -4930,7 +4941,7 @@
         <v>321</v>
       </c>
       <c r="B99" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4938,7 +4949,7 @@
         <v>322</v>
       </c>
       <c r="B100" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -4946,7 +4957,7 @@
         <v>323</v>
       </c>
       <c r="B101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4954,7 +4965,7 @@
         <v>324</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4962,7 +4973,7 @@
         <v>325</v>
       </c>
       <c r="B103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4970,7 +4981,7 @@
         <v>326</v>
       </c>
       <c r="B104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4978,7 +4989,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4986,7 +4997,7 @@
         <v>327</v>
       </c>
       <c r="B106" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4994,7 +5005,7 @@
         <v>328</v>
       </c>
       <c r="B107" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -5002,7 +5013,7 @@
         <v>329</v>
       </c>
       <c r="B108" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -5010,7 +5021,7 @@
         <v>330</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -5018,7 +5029,7 @@
         <v>331</v>
       </c>
       <c r="B110" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -5026,7 +5037,7 @@
         <v>332</v>
       </c>
       <c r="B111" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -5034,7 +5045,7 @@
         <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -5042,7 +5053,7 @@
         <v>333</v>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -5050,7 +5061,7 @@
         <v>334</v>
       </c>
       <c r="B114" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -5058,7 +5069,7 @@
         <v>335</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -5066,7 +5077,7 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -5074,7 +5085,7 @@
         <v>336</v>
       </c>
       <c r="B117" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -5082,7 +5093,7 @@
         <v>337</v>
       </c>
       <c r="B118" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -5090,7 +5101,7 @@
         <v>31</v>
       </c>
       <c r="B119" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -5098,7 +5109,7 @@
         <v>338</v>
       </c>
       <c r="B120" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -5106,7 +5117,7 @@
         <v>339</v>
       </c>
       <c r="B121" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -5114,7 +5125,7 @@
         <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -5122,7 +5133,7 @@
         <v>341</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -5130,7 +5141,7 @@
         <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -5138,7 +5149,7 @@
         <v>342</v>
       </c>
       <c r="B125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -5146,7 +5157,7 @@
         <v>343</v>
       </c>
       <c r="B126" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -5154,7 +5165,7 @@
         <v>344</v>
       </c>
       <c r="B127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -5162,7 +5173,7 @@
         <v>345</v>
       </c>
       <c r="B128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -5170,7 +5181,7 @@
         <v>346</v>
       </c>
       <c r="B129" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -5178,7 +5189,7 @@
         <v>347</v>
       </c>
       <c r="B130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -5186,7 +5197,7 @@
         <v>157</v>
       </c>
       <c r="B131" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -5194,7 +5205,7 @@
         <v>348</v>
       </c>
       <c r="B132" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -5202,7 +5213,7 @@
         <v>349</v>
       </c>
       <c r="B133" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -5210,7 +5221,7 @@
         <v>350</v>
       </c>
       <c r="B134" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -5218,7 +5229,7 @@
         <v>351</v>
       </c>
       <c r="B135" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -5226,7 +5237,7 @@
         <v>352</v>
       </c>
       <c r="B136" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5234,7 +5245,7 @@
         <v>353</v>
       </c>
       <c r="B137" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -5242,7 +5253,7 @@
         <v>354</v>
       </c>
       <c r="B138" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -5250,7 +5261,7 @@
         <v>355</v>
       </c>
       <c r="B139" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -5258,7 +5269,7 @@
         <v>356</v>
       </c>
       <c r="B140" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -5266,7 +5277,7 @@
         <v>357</v>
       </c>
       <c r="B141" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -5274,7 +5285,7 @@
         <v>358</v>
       </c>
       <c r="B142" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -5282,7 +5293,7 @@
         <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -5290,7 +5301,7 @@
         <v>359</v>
       </c>
       <c r="B144" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -5298,7 +5309,7 @@
         <v>360</v>
       </c>
       <c r="B145" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -5306,7 +5317,7 @@
         <v>31</v>
       </c>
       <c r="B146" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -5314,7 +5325,7 @@
         <v>361</v>
       </c>
       <c r="B147" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -5322,7 +5333,7 @@
         <v>362</v>
       </c>
       <c r="B148" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -5330,7 +5341,7 @@
         <v>40</v>
       </c>
       <c r="B149" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -5338,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -5346,7 +5357,7 @@
         <v>363</v>
       </c>
       <c r="B151" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -5354,7 +5365,7 @@
         <v>364</v>
       </c>
       <c r="B152" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -5362,7 +5373,7 @@
         <v>365</v>
       </c>
       <c r="B153" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -5370,7 +5381,7 @@
         <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -5378,7 +5389,7 @@
         <v>366</v>
       </c>
       <c r="B155" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -5386,7 +5397,7 @@
         <v>367</v>
       </c>
       <c r="B156" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -5394,7 +5405,7 @@
         <v>368</v>
       </c>
       <c r="B157" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -5402,7 +5413,7 @@
         <v>369</v>
       </c>
       <c r="B158" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -5410,7 +5421,7 @@
         <v>370</v>
       </c>
       <c r="B159" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -5418,7 +5429,7 @@
         <v>371</v>
       </c>
       <c r="B160" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -5426,7 +5437,7 @@
         <v>372</v>
       </c>
       <c r="B161" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -5434,7 +5445,7 @@
         <v>373</v>
       </c>
       <c r="B162" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -5442,7 +5453,7 @@
         <v>374</v>
       </c>
       <c r="B163" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -5450,7 +5461,7 @@
         <v>375</v>
       </c>
       <c r="B164" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -5458,7 +5469,7 @@
         <v>376</v>
       </c>
       <c r="B165" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -5466,7 +5477,7 @@
         <v>377</v>
       </c>
       <c r="B166" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -5474,7 +5485,7 @@
         <v>378</v>
       </c>
       <c r="B167" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -5482,7 +5493,7 @@
         <v>379</v>
       </c>
       <c r="B168" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -5490,7 +5501,7 @@
         <v>380</v>
       </c>
       <c r="B169" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -5498,7 +5509,7 @@
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -5506,7 +5517,7 @@
         <v>381</v>
       </c>
       <c r="B171" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -5514,7 +5525,7 @@
         <v>382</v>
       </c>
       <c r="B172" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -5522,7 +5533,7 @@
         <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -5530,7 +5541,7 @@
         <v>383</v>
       </c>
       <c r="B174" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -5538,7 +5549,7 @@
         <v>384</v>
       </c>
       <c r="B175" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -5546,7 +5557,7 @@
         <v>385</v>
       </c>
       <c r="B176" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -5554,7 +5565,7 @@
         <v>386</v>
       </c>
       <c r="B177" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -5562,7 +5573,7 @@
         <v>387</v>
       </c>
       <c r="B178" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -5570,7 +5581,7 @@
         <v>388</v>
       </c>
       <c r="B179" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -5578,7 +5589,7 @@
         <v>389</v>
       </c>
       <c r="B180" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -5586,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -5594,7 +5605,7 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -5602,7 +5613,7 @@
         <v>390</v>
       </c>
       <c r="B183" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -5610,7 +5621,7 @@
         <v>221</v>
       </c>
       <c r="B184" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -5618,7 +5629,7 @@
         <v>391</v>
       </c>
       <c r="B185" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -5626,7 +5637,7 @@
         <v>392</v>
       </c>
       <c r="B186" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -5634,7 +5645,7 @@
         <v>393</v>
       </c>
       <c r="B187" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -5642,7 +5653,7 @@
         <v>394</v>
       </c>
       <c r="B188" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -5650,7 +5661,7 @@
         <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -5658,7 +5669,7 @@
         <v>157</v>
       </c>
       <c r="B190" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -5666,7 +5677,7 @@
         <v>395</v>
       </c>
       <c r="B191" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -5674,7 +5685,7 @@
         <v>396</v>
       </c>
       <c r="B192" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -5682,7 +5693,7 @@
         <v>397</v>
       </c>
       <c r="B193" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -5690,7 +5701,7 @@
         <v>398</v>
       </c>
       <c r="B194" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5698,7 +5709,7 @@
         <v>399</v>
       </c>
       <c r="B195" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -5706,7 +5717,7 @@
         <v>400</v>
       </c>
       <c r="B196" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -5714,7 +5725,7 @@
         <v>401</v>
       </c>
       <c r="B197" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -5722,7 +5733,7 @@
         <v>402</v>
       </c>
       <c r="B198" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -5730,7 +5741,7 @@
         <v>35</v>
       </c>
       <c r="B199" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -5738,7 +5749,7 @@
         <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -5746,7 +5757,7 @@
         <v>404</v>
       </c>
       <c r="B201" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Thrones.xlsx
+++ b/Game of Thrones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\1)INSPER\Semestres\2 SEMESTRE\CIÊNCIAS DOS DADOS\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb7416bf720ee6d/Documentos/1)INSPER/Semestres/2 SEMESTRE/CIÊNCIAS DOS DADOS/Projeto2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="6A77F46AD407BEC398357E6BE0C2DC4FAB1719B6" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{610B4C03-6A8E-416E-8BF9-3810583F8366}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="103_{A66EE379-C21A-448E-BBE4-EFCA281FD2B1}" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="407">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1294,13 +1294,10 @@
     <t>"eu não acredito que a juluisi inventou game of thrones" https://t.co/xb5kz9c44k</t>
   </si>
   <si>
-    <t>Relevância</t>
-  </si>
-  <si>
-    <t>Relevante</t>
-  </si>
-  <si>
-    <t>Irrelevante</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -1714,30 +1711,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A284" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="131.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1745,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1753,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1761,7 +1754,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1769,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1777,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1785,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1793,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1801,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1809,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1817,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1825,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1833,7 +1826,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1841,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1849,7 +1842,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1857,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1865,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1873,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1881,7 +1874,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1889,7 +1882,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1897,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1905,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1913,7 +1906,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1921,7 +1914,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1929,7 +1922,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1937,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1945,7 +1938,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1953,7 +1946,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1961,7 +1954,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1969,7 +1962,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1977,7 +1970,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1985,7 +1978,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1993,7 +1986,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2001,7 +1994,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2009,7 +2002,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2017,7 +2010,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2025,7 +2018,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2033,7 +2026,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2041,7 +2034,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2049,7 +2042,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2057,7 +2050,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2065,7 +2058,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2073,7 +2066,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2081,7 +2074,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2089,7 +2082,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2097,7 +2090,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2105,7 +2098,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2113,7 +2106,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2121,7 +2114,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2129,7 +2122,7 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2137,7 +2130,7 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2145,7 +2138,7 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2153,7 +2146,7 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2161,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2169,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2177,7 +2170,7 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2185,7 +2178,7 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2193,7 +2186,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2201,7 +2194,7 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2209,7 +2202,7 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2217,7 +2210,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2225,7 +2218,7 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2233,7 +2226,7 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2241,7 +2234,7 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2249,7 +2242,7 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2257,7 +2250,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2265,7 +2258,7 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2273,7 +2266,7 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2281,7 +2274,7 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2289,7 +2282,7 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2297,7 +2290,7 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2305,7 +2298,7 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2313,7 +2306,7 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2321,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2329,7 +2322,7 @@
         <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2337,7 +2330,7 @@
         <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2345,7 +2338,7 @@
         <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2353,7 +2346,7 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2361,7 +2354,7 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2369,7 +2362,7 @@
         <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2377,7 +2370,7 @@
         <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2385,7 +2378,7 @@
         <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2393,7 +2386,7 @@
         <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2401,7 +2394,7 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2409,7 +2402,7 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2417,7 +2410,7 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2425,7 +2418,7 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2433,7 +2426,7 @@
         <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2441,7 +2434,7 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2449,7 +2442,7 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2457,7 +2450,7 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2465,7 +2458,7 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2473,7 +2466,7 @@
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2481,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2489,7 +2482,7 @@
         <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2497,7 +2490,7 @@
         <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2505,7 +2498,7 @@
         <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2513,7 +2506,7 @@
         <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2521,7 +2514,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2529,7 +2522,7 @@
         <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -2537,7 +2530,7 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -2545,7 +2538,7 @@
         <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -2553,7 +2546,7 @@
         <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2561,7 +2554,7 @@
         <v>94</v>
       </c>
       <c r="B105" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2569,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2577,7 +2570,7 @@
         <v>95</v>
       </c>
       <c r="B107" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2585,7 +2578,7 @@
         <v>96</v>
       </c>
       <c r="B108" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -2593,7 +2586,7 @@
         <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2601,7 +2594,7 @@
         <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -2609,7 +2602,7 @@
         <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2617,7 +2610,7 @@
         <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2625,7 +2618,7 @@
         <v>100</v>
       </c>
       <c r="B113" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2633,7 +2626,7 @@
         <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2641,7 +2634,7 @@
         <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2649,7 +2642,7 @@
         <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2657,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2665,7 +2658,7 @@
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2673,7 +2666,7 @@
         <v>105</v>
       </c>
       <c r="B119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2681,7 +2674,7 @@
         <v>106</v>
       </c>
       <c r="B120" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2689,7 +2682,7 @@
         <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2697,7 +2690,7 @@
         <v>108</v>
       </c>
       <c r="B122" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -2705,7 +2698,7 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2713,7 +2706,7 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2721,7 +2714,7 @@
         <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2729,7 +2722,7 @@
         <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2737,7 +2730,7 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2745,7 +2738,7 @@
         <v>111</v>
       </c>
       <c r="B128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2753,7 +2746,7 @@
         <v>112</v>
       </c>
       <c r="B129" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2761,7 +2754,7 @@
         <v>113</v>
       </c>
       <c r="B130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2769,7 +2762,7 @@
         <v>114</v>
       </c>
       <c r="B131" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2777,7 +2770,7 @@
         <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2785,7 +2778,7 @@
         <v>115</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2793,7 +2786,7 @@
         <v>116</v>
       </c>
       <c r="B134" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2809,7 +2802,7 @@
         <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2817,7 +2810,7 @@
         <v>117</v>
       </c>
       <c r="B137" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2825,7 +2818,7 @@
         <v>118</v>
       </c>
       <c r="B138" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2833,7 +2826,7 @@
         <v>40</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2841,7 +2834,7 @@
         <v>119</v>
       </c>
       <c r="B140" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -2849,7 +2842,7 @@
         <v>120</v>
       </c>
       <c r="B141" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -2857,7 +2850,7 @@
         <v>121</v>
       </c>
       <c r="B142" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2865,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -2873,7 +2866,7 @@
         <v>122</v>
       </c>
       <c r="B144" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2881,7 +2874,7 @@
         <v>123</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2889,7 +2882,7 @@
         <v>124</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2897,7 +2890,7 @@
         <v>125</v>
       </c>
       <c r="B147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2905,7 +2898,7 @@
         <v>126</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2913,7 +2906,7 @@
         <v>127</v>
       </c>
       <c r="B149" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2921,7 +2914,7 @@
         <v>128</v>
       </c>
       <c r="B150" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2929,7 +2922,7 @@
         <v>129</v>
       </c>
       <c r="B151" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2937,7 +2930,7 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -2945,7 +2938,7 @@
         <v>130</v>
       </c>
       <c r="B153" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -2953,7 +2946,7 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -2961,7 +2954,7 @@
         <v>131</v>
       </c>
       <c r="B155" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -2969,7 +2962,7 @@
         <v>132</v>
       </c>
       <c r="B156" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -2977,7 +2970,7 @@
         <v>133</v>
       </c>
       <c r="B157" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2985,7 +2978,7 @@
         <v>134</v>
       </c>
       <c r="B158" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -2993,7 +2986,7 @@
         <v>135</v>
       </c>
       <c r="B159" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3001,7 +2994,7 @@
         <v>136</v>
       </c>
       <c r="B160" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3009,7 +3002,7 @@
         <v>137</v>
       </c>
       <c r="B161" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3017,7 +3010,7 @@
         <v>138</v>
       </c>
       <c r="B162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3025,7 +3018,7 @@
         <v>139</v>
       </c>
       <c r="B163" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -3033,7 +3026,7 @@
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -3041,7 +3034,7 @@
         <v>140</v>
       </c>
       <c r="B165" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -3049,7 +3042,7 @@
         <v>141</v>
       </c>
       <c r="B166" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3057,7 +3050,7 @@
         <v>142</v>
       </c>
       <c r="B167" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3065,7 +3058,7 @@
         <v>143</v>
       </c>
       <c r="B168" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -3073,7 +3066,7 @@
         <v>144</v>
       </c>
       <c r="B169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3081,7 +3074,7 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -3089,7 +3082,7 @@
         <v>145</v>
       </c>
       <c r="B171" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -3097,7 +3090,7 @@
         <v>146</v>
       </c>
       <c r="B172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -3105,7 +3098,7 @@
         <v>88</v>
       </c>
       <c r="B173" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -3113,7 +3106,7 @@
         <v>147</v>
       </c>
       <c r="B174" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -3121,7 +3114,7 @@
         <v>148</v>
       </c>
       <c r="B175" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3129,7 +3122,7 @@
         <v>149</v>
       </c>
       <c r="B176" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -3137,7 +3130,7 @@
         <v>150</v>
       </c>
       <c r="B177" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3145,7 +3138,7 @@
         <v>151</v>
       </c>
       <c r="B178" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -3153,7 +3146,7 @@
         <v>152</v>
       </c>
       <c r="B179" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,7 +3154,7 @@
         <v>153</v>
       </c>
       <c r="B180" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3169,7 +3162,7 @@
         <v>154</v>
       </c>
       <c r="B181" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3177,7 +3170,7 @@
         <v>155</v>
       </c>
       <c r="B182" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3185,7 +3178,7 @@
         <v>93</v>
       </c>
       <c r="B183" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3193,7 +3186,7 @@
         <v>131</v>
       </c>
       <c r="B184" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -3201,7 +3194,7 @@
         <v>156</v>
       </c>
       <c r="B185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3209,7 +3202,7 @@
         <v>157</v>
       </c>
       <c r="B186" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -3217,7 +3210,7 @@
         <v>158</v>
       </c>
       <c r="B187" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3225,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3233,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -3241,7 +3234,7 @@
         <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3249,7 +3242,7 @@
         <v>159</v>
       </c>
       <c r="B191" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3257,7 +3250,7 @@
         <v>40</v>
       </c>
       <c r="B192" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3265,7 +3258,7 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3273,7 +3266,7 @@
         <v>160</v>
       </c>
       <c r="B194" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3281,7 +3274,7 @@
         <v>161</v>
       </c>
       <c r="B195" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -3289,7 +3282,7 @@
         <v>162</v>
       </c>
       <c r="B196" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3297,7 +3290,7 @@
         <v>157</v>
       </c>
       <c r="B197" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3305,7 +3298,7 @@
         <v>163</v>
       </c>
       <c r="B198" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -3313,7 +3306,7 @@
         <v>164</v>
       </c>
       <c r="B199" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -3321,7 +3314,7 @@
         <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -3329,7 +3322,7 @@
         <v>166</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -3337,7 +3330,7 @@
         <v>167</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3345,7 +3338,7 @@
         <v>168</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3353,7 +3346,7 @@
         <v>169</v>
       </c>
       <c r="B204" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3361,7 +3354,7 @@
         <v>170</v>
       </c>
       <c r="B205" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3369,7 +3362,7 @@
         <v>171</v>
       </c>
       <c r="B206" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3377,7 +3370,7 @@
         <v>172</v>
       </c>
       <c r="B207" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3385,7 +3378,7 @@
         <v>173</v>
       </c>
       <c r="B208" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3393,7 +3386,7 @@
         <v>174</v>
       </c>
       <c r="B209" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3401,7 +3394,7 @@
         <v>175</v>
       </c>
       <c r="B210" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -3409,7 +3402,7 @@
         <v>176</v>
       </c>
       <c r="B211" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3417,7 +3410,7 @@
         <v>177</v>
       </c>
       <c r="B212" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -3425,7 +3418,7 @@
         <v>178</v>
       </c>
       <c r="B213" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3433,7 +3426,7 @@
         <v>179</v>
       </c>
       <c r="B214" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -3441,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3449,7 +3442,7 @@
         <v>180</v>
       </c>
       <c r="B216" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3457,7 +3450,7 @@
         <v>181</v>
       </c>
       <c r="B217" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -3465,7 +3458,7 @@
         <v>182</v>
       </c>
       <c r="B218" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3473,7 +3466,7 @@
         <v>183</v>
       </c>
       <c r="B219" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3481,7 +3474,7 @@
         <v>184</v>
       </c>
       <c r="B220" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -3489,7 +3482,7 @@
         <v>185</v>
       </c>
       <c r="B221" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -3497,7 +3490,7 @@
         <v>186</v>
       </c>
       <c r="B222" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -3505,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -3513,7 +3506,7 @@
         <v>187</v>
       </c>
       <c r="B224" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -3521,7 +3514,7 @@
         <v>188</v>
       </c>
       <c r="B225" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -3529,7 +3522,7 @@
         <v>189</v>
       </c>
       <c r="B226" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -3537,7 +3530,7 @@
         <v>190</v>
       </c>
       <c r="B227" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -3545,7 +3538,7 @@
         <v>191</v>
       </c>
       <c r="B228" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -3553,7 +3546,7 @@
         <v>192</v>
       </c>
       <c r="B229" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -3561,7 +3554,7 @@
         <v>193</v>
       </c>
       <c r="B230" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -3569,7 +3562,7 @@
         <v>194</v>
       </c>
       <c r="B231" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -3577,7 +3570,7 @@
         <v>157</v>
       </c>
       <c r="B232" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3585,7 +3578,7 @@
         <v>19</v>
       </c>
       <c r="B233" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -3593,7 +3586,7 @@
         <v>195</v>
       </c>
       <c r="B234" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -3601,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -3609,7 +3602,7 @@
         <v>196</v>
       </c>
       <c r="B236" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -3617,7 +3610,7 @@
         <v>80</v>
       </c>
       <c r="B237" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -3625,7 +3618,7 @@
         <v>197</v>
       </c>
       <c r="B238" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -3633,7 +3626,7 @@
         <v>198</v>
       </c>
       <c r="B239" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -3641,7 +3634,7 @@
         <v>199</v>
       </c>
       <c r="B240" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -3649,7 +3642,7 @@
         <v>200</v>
       </c>
       <c r="B241" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -3657,7 +3650,7 @@
         <v>201</v>
       </c>
       <c r="B242" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3665,7 +3658,7 @@
         <v>202</v>
       </c>
       <c r="B243" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -3673,7 +3666,7 @@
         <v>203</v>
       </c>
       <c r="B244" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -3681,7 +3674,7 @@
         <v>204</v>
       </c>
       <c r="B245" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -3689,7 +3682,7 @@
         <v>205</v>
       </c>
       <c r="B246" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -3697,7 +3690,7 @@
         <v>19</v>
       </c>
       <c r="B247" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -3705,7 +3698,7 @@
         <v>206</v>
       </c>
       <c r="B248" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -3713,7 +3706,7 @@
         <v>207</v>
       </c>
       <c r="B249" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -3721,7 +3714,7 @@
         <v>208</v>
       </c>
       <c r="B250" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -3729,7 +3722,7 @@
         <v>209</v>
       </c>
       <c r="B251" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -3737,7 +3730,7 @@
         <v>210</v>
       </c>
       <c r="B252" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -3745,7 +3738,7 @@
         <v>211</v>
       </c>
       <c r="B253" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -3753,7 +3746,7 @@
         <v>212</v>
       </c>
       <c r="B254" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -3761,7 +3754,7 @@
         <v>213</v>
       </c>
       <c r="B255" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -3769,7 +3762,7 @@
         <v>214</v>
       </c>
       <c r="B256" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -3777,7 +3770,7 @@
         <v>215</v>
       </c>
       <c r="B257" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -3785,7 +3778,7 @@
         <v>216</v>
       </c>
       <c r="B258" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -3793,7 +3786,7 @@
         <v>217</v>
       </c>
       <c r="B259" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -3801,7 +3794,7 @@
         <v>8</v>
       </c>
       <c r="B260" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -3809,7 +3802,7 @@
         <v>157</v>
       </c>
       <c r="B261" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -3817,7 +3810,7 @@
         <v>218</v>
       </c>
       <c r="B262" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -3825,7 +3818,7 @@
         <v>219</v>
       </c>
       <c r="B263" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -3833,7 +3826,7 @@
         <v>220</v>
       </c>
       <c r="B264" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -3841,7 +3834,7 @@
         <v>221</v>
       </c>
       <c r="B265" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -3849,7 +3842,7 @@
         <v>222</v>
       </c>
       <c r="B266" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -3857,7 +3850,7 @@
         <v>19</v>
       </c>
       <c r="B267" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -3865,7 +3858,7 @@
         <v>223</v>
       </c>
       <c r="B268" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -3873,7 +3866,7 @@
         <v>224</v>
       </c>
       <c r="B269" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -3881,7 +3874,7 @@
         <v>225</v>
       </c>
       <c r="B270" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -3889,7 +3882,7 @@
         <v>226</v>
       </c>
       <c r="B271" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -3897,7 +3890,7 @@
         <v>227</v>
       </c>
       <c r="B272" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -3905,7 +3898,7 @@
         <v>20</v>
       </c>
       <c r="B273" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -3913,7 +3906,7 @@
         <v>19</v>
       </c>
       <c r="B274" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -3921,7 +3914,7 @@
         <v>228</v>
       </c>
       <c r="B275" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -3929,7 +3922,7 @@
         <v>229</v>
       </c>
       <c r="B276" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -3937,7 +3930,7 @@
         <v>230</v>
       </c>
       <c r="B277" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -3945,7 +3938,7 @@
         <v>231</v>
       </c>
       <c r="B278" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -3953,7 +3946,7 @@
         <v>88</v>
       </c>
       <c r="B279" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -3961,7 +3954,7 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -3969,7 +3962,7 @@
         <v>19</v>
       </c>
       <c r="B281" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -3977,7 +3970,7 @@
         <v>232</v>
       </c>
       <c r="B282" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -3985,7 +3978,7 @@
         <v>233</v>
       </c>
       <c r="B283" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -3993,7 +3986,7 @@
         <v>234</v>
       </c>
       <c r="B284" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4001,7 +3994,7 @@
         <v>235</v>
       </c>
       <c r="B285" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4009,7 +4002,7 @@
         <v>236</v>
       </c>
       <c r="B286" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4017,7 +4010,7 @@
         <v>237</v>
       </c>
       <c r="B287" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4025,7 +4018,7 @@
         <v>19</v>
       </c>
       <c r="B288" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -4033,7 +4026,7 @@
         <v>238</v>
       </c>
       <c r="B289" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4041,7 +4034,7 @@
         <v>239</v>
       </c>
       <c r="B290" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -4049,7 +4042,7 @@
         <v>240</v>
       </c>
       <c r="B291" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4057,7 +4050,7 @@
         <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4065,7 +4058,7 @@
         <v>241</v>
       </c>
       <c r="B293" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4073,7 +4066,7 @@
         <v>242</v>
       </c>
       <c r="B294" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -4081,7 +4074,7 @@
         <v>243</v>
       </c>
       <c r="B295" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -4089,7 +4082,7 @@
         <v>244</v>
       </c>
       <c r="B296" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -4097,7 +4090,7 @@
         <v>245</v>
       </c>
       <c r="B297" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -4105,7 +4098,7 @@
         <v>246</v>
       </c>
       <c r="B298" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -4113,7 +4106,7 @@
         <v>19</v>
       </c>
       <c r="B299" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -4121,7 +4114,7 @@
         <v>247</v>
       </c>
       <c r="B300" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -4129,7 +4122,7 @@
         <v>248</v>
       </c>
       <c r="B301" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4142,30 +4135,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="127.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4173,7 +4162,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4181,7 +4170,7 @@
         <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4189,7 +4178,7 @@
         <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4197,7 +4186,7 @@
         <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4205,7 +4194,7 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4213,7 +4202,7 @@
         <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4221,7 +4210,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4229,7 +4218,7 @@
         <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4237,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4245,7 +4234,7 @@
         <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4253,7 +4242,7 @@
         <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4261,7 +4250,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4269,7 +4258,7 @@
         <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4277,7 +4266,7 @@
         <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4285,7 +4274,7 @@
         <v>260</v>
       </c>
       <c r="B17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4293,7 +4282,7 @@
         <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4301,7 +4290,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4309,7 +4298,7 @@
         <v>262</v>
       </c>
       <c r="B20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4317,7 +4306,7 @@
         <v>263</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4325,7 +4314,7 @@
         <v>264</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4333,7 +4322,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4341,7 +4330,7 @@
         <v>265</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4349,7 +4338,7 @@
         <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4357,7 +4346,7 @@
         <v>267</v>
       </c>
       <c r="B26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4365,7 +4354,7 @@
         <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4373,7 +4362,7 @@
         <v>269</v>
       </c>
       <c r="B28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4381,7 +4370,7 @@
         <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4389,7 +4378,7 @@
         <v>271</v>
       </c>
       <c r="B30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4397,7 +4386,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4405,7 +4394,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4413,7 +4402,7 @@
         <v>272</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4421,7 +4410,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4429,7 +4418,7 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -4437,7 +4426,7 @@
         <v>273</v>
       </c>
       <c r="B36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4445,7 +4434,7 @@
         <v>274</v>
       </c>
       <c r="B37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -4453,7 +4442,7 @@
         <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -4461,7 +4450,7 @@
         <v>276</v>
       </c>
       <c r="B39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -4469,7 +4458,7 @@
         <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4477,7 +4466,7 @@
         <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -4485,7 +4474,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -4493,7 +4482,7 @@
         <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4501,7 +4490,7 @@
         <v>279</v>
       </c>
       <c r="B44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4509,7 +4498,7 @@
         <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -4517,7 +4506,7 @@
         <v>281</v>
       </c>
       <c r="B46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -4525,7 +4514,7 @@
         <v>282</v>
       </c>
       <c r="B47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -4533,7 +4522,7 @@
         <v>283</v>
       </c>
       <c r="B48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -4541,7 +4530,7 @@
         <v>284</v>
       </c>
       <c r="B49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4549,7 +4538,7 @@
         <v>285</v>
       </c>
       <c r="B50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4557,7 +4546,7 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4565,7 +4554,7 @@
         <v>286</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4573,7 +4562,7 @@
         <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4581,7 +4570,7 @@
         <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -4589,7 +4578,7 @@
         <v>289</v>
       </c>
       <c r="B55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4597,7 +4586,7 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4605,7 +4594,7 @@
         <v>290</v>
       </c>
       <c r="B57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -4613,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4621,7 +4610,7 @@
         <v>291</v>
       </c>
       <c r="B59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4629,7 +4618,7 @@
         <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4637,7 +4626,7 @@
         <v>293</v>
       </c>
       <c r="B61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -4645,7 +4634,7 @@
         <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -4653,7 +4642,7 @@
         <v>294</v>
       </c>
       <c r="B63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -4661,7 +4650,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -4669,7 +4658,7 @@
         <v>295</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -4677,7 +4666,7 @@
         <v>296</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -4685,7 +4674,7 @@
         <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -4693,7 +4682,7 @@
         <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -4701,7 +4690,7 @@
         <v>298</v>
       </c>
       <c r="B69" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -4709,7 +4698,7 @@
         <v>299</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -4717,7 +4706,7 @@
         <v>300</v>
       </c>
       <c r="B71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -4725,7 +4714,7 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -4733,7 +4722,7 @@
         <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4741,7 +4730,7 @@
         <v>302</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -4749,7 +4738,7 @@
         <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -4757,7 +4746,7 @@
         <v>303</v>
       </c>
       <c r="B76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4765,7 +4754,7 @@
         <v>304</v>
       </c>
       <c r="B77" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4773,7 +4762,7 @@
         <v>305</v>
       </c>
       <c r="B78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4781,7 +4770,7 @@
         <v>306</v>
       </c>
       <c r="B79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4789,7 +4778,7 @@
         <v>307</v>
       </c>
       <c r="B80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4797,7 +4786,7 @@
         <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4805,7 +4794,7 @@
         <v>309</v>
       </c>
       <c r="B82" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4813,7 +4802,7 @@
         <v>310</v>
       </c>
       <c r="B83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4821,7 +4810,7 @@
         <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -4829,7 +4818,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4837,7 +4826,7 @@
         <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4845,7 +4834,7 @@
         <v>312</v>
       </c>
       <c r="B87" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4853,7 +4842,7 @@
         <v>313</v>
       </c>
       <c r="B88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4861,7 +4850,7 @@
         <v>314</v>
       </c>
       <c r="B89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4869,7 +4858,7 @@
         <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4877,7 +4866,7 @@
         <v>315</v>
       </c>
       <c r="B91" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4885,7 +4874,7 @@
         <v>316</v>
       </c>
       <c r="B92" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -4893,7 +4882,7 @@
         <v>317</v>
       </c>
       <c r="B93" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -4901,7 +4890,7 @@
         <v>318</v>
       </c>
       <c r="B94" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4909,7 +4898,7 @@
         <v>319</v>
       </c>
       <c r="B95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -4917,7 +4906,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4925,7 +4914,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4933,7 +4922,7 @@
         <v>320</v>
       </c>
       <c r="B98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -4941,7 +4930,7 @@
         <v>321</v>
       </c>
       <c r="B99" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4949,7 +4938,7 @@
         <v>322</v>
       </c>
       <c r="B100" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -4957,7 +4946,7 @@
         <v>323</v>
       </c>
       <c r="B101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4965,7 +4954,7 @@
         <v>324</v>
       </c>
       <c r="B102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4973,7 +4962,7 @@
         <v>325</v>
       </c>
       <c r="B103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4981,7 +4970,7 @@
         <v>326</v>
       </c>
       <c r="B104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4989,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4997,7 +4986,7 @@
         <v>327</v>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5005,7 +4994,7 @@
         <v>328</v>
       </c>
       <c r="B107" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -5013,7 +5002,7 @@
         <v>329</v>
       </c>
       <c r="B108" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -5021,7 +5010,7 @@
         <v>330</v>
       </c>
       <c r="B109" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -5029,7 +5018,7 @@
         <v>331</v>
       </c>
       <c r="B110" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -5037,7 +5026,7 @@
         <v>332</v>
       </c>
       <c r="B111" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -5045,7 +5034,7 @@
         <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -5053,7 +5042,7 @@
         <v>333</v>
       </c>
       <c r="B113" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -5061,7 +5050,7 @@
         <v>334</v>
       </c>
       <c r="B114" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -5069,7 +5058,7 @@
         <v>335</v>
       </c>
       <c r="B115" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -5077,7 +5066,7 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -5085,7 +5074,7 @@
         <v>336</v>
       </c>
       <c r="B117" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -5093,7 +5082,7 @@
         <v>337</v>
       </c>
       <c r="B118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -5101,7 +5090,7 @@
         <v>31</v>
       </c>
       <c r="B119" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -5109,7 +5098,7 @@
         <v>338</v>
       </c>
       <c r="B120" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -5117,7 +5106,7 @@
         <v>339</v>
       </c>
       <c r="B121" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -5125,7 +5114,7 @@
         <v>340</v>
       </c>
       <c r="B122" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -5133,7 +5122,7 @@
         <v>341</v>
       </c>
       <c r="B123" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -5141,7 +5130,7 @@
         <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -5149,7 +5138,7 @@
         <v>342</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -5157,7 +5146,7 @@
         <v>343</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -5165,7 +5154,7 @@
         <v>344</v>
       </c>
       <c r="B127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -5173,7 +5162,7 @@
         <v>345</v>
       </c>
       <c r="B128" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -5181,7 +5170,7 @@
         <v>346</v>
       </c>
       <c r="B129" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -5189,7 +5178,7 @@
         <v>347</v>
       </c>
       <c r="B130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -5197,7 +5186,7 @@
         <v>157</v>
       </c>
       <c r="B131" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -5205,7 +5194,7 @@
         <v>348</v>
       </c>
       <c r="B132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -5213,7 +5202,7 @@
         <v>349</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -5221,7 +5210,7 @@
         <v>350</v>
       </c>
       <c r="B134" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -5229,7 +5218,7 @@
         <v>351</v>
       </c>
       <c r="B135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -5237,7 +5226,7 @@
         <v>352</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5245,7 +5234,7 @@
         <v>353</v>
       </c>
       <c r="B137" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -5253,7 +5242,7 @@
         <v>354</v>
       </c>
       <c r="B138" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -5261,7 +5250,7 @@
         <v>355</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -5269,7 +5258,7 @@
         <v>356</v>
       </c>
       <c r="B140" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -5277,7 +5266,7 @@
         <v>357</v>
       </c>
       <c r="B141" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -5285,7 +5274,7 @@
         <v>358</v>
       </c>
       <c r="B142" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -5293,7 +5282,7 @@
         <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -5301,7 +5290,7 @@
         <v>359</v>
       </c>
       <c r="B144" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -5309,7 +5298,7 @@
         <v>360</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -5317,7 +5306,7 @@
         <v>31</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -5325,7 +5314,7 @@
         <v>361</v>
       </c>
       <c r="B147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -5333,7 +5322,7 @@
         <v>362</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -5341,7 +5330,7 @@
         <v>40</v>
       </c>
       <c r="B149" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -5349,7 +5338,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -5357,7 +5346,7 @@
         <v>363</v>
       </c>
       <c r="B151" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -5365,7 +5354,7 @@
         <v>364</v>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -5373,7 +5362,7 @@
         <v>365</v>
       </c>
       <c r="B153" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -5381,7 +5370,7 @@
         <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -5389,7 +5378,7 @@
         <v>366</v>
       </c>
       <c r="B155" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -5397,7 +5386,7 @@
         <v>367</v>
       </c>
       <c r="B156" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -5405,7 +5394,7 @@
         <v>368</v>
       </c>
       <c r="B157" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -5413,7 +5402,7 @@
         <v>369</v>
       </c>
       <c r="B158" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -5421,7 +5410,7 @@
         <v>370</v>
       </c>
       <c r="B159" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -5429,7 +5418,7 @@
         <v>371</v>
       </c>
       <c r="B160" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -5437,7 +5426,7 @@
         <v>372</v>
       </c>
       <c r="B161" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -5445,7 +5434,7 @@
         <v>373</v>
       </c>
       <c r="B162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -5453,7 +5442,7 @@
         <v>374</v>
       </c>
       <c r="B163" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -5461,7 +5450,7 @@
         <v>375</v>
       </c>
       <c r="B164" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -5469,7 +5458,7 @@
         <v>376</v>
       </c>
       <c r="B165" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -5477,7 +5466,7 @@
         <v>377</v>
       </c>
       <c r="B166" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -5485,7 +5474,7 @@
         <v>378</v>
       </c>
       <c r="B167" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -5493,7 +5482,7 @@
         <v>379</v>
       </c>
       <c r="B168" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -5501,7 +5490,7 @@
         <v>380</v>
       </c>
       <c r="B169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -5509,7 +5498,7 @@
         <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -5517,7 +5506,7 @@
         <v>381</v>
       </c>
       <c r="B171" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -5525,7 +5514,7 @@
         <v>382</v>
       </c>
       <c r="B172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -5533,7 +5522,7 @@
         <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -5541,7 +5530,7 @@
         <v>383</v>
       </c>
       <c r="B174" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -5549,7 +5538,7 @@
         <v>384</v>
       </c>
       <c r="B175" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -5557,7 +5546,7 @@
         <v>385</v>
       </c>
       <c r="B176" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -5565,7 +5554,7 @@
         <v>386</v>
       </c>
       <c r="B177" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -5573,7 +5562,7 @@
         <v>387</v>
       </c>
       <c r="B178" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -5581,7 +5570,7 @@
         <v>388</v>
       </c>
       <c r="B179" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -5589,7 +5578,7 @@
         <v>389</v>
       </c>
       <c r="B180" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -5597,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -5605,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -5613,7 +5602,7 @@
         <v>390</v>
       </c>
       <c r="B183" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -5621,7 +5610,7 @@
         <v>221</v>
       </c>
       <c r="B184" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -5629,7 +5618,7 @@
         <v>391</v>
       </c>
       <c r="B185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -5637,7 +5626,7 @@
         <v>392</v>
       </c>
       <c r="B186" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -5645,7 +5634,7 @@
         <v>393</v>
       </c>
       <c r="B187" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -5653,7 +5642,7 @@
         <v>394</v>
       </c>
       <c r="B188" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -5661,7 +5650,7 @@
         <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -5669,7 +5658,7 @@
         <v>157</v>
       </c>
       <c r="B190" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -5677,7 +5666,7 @@
         <v>395</v>
       </c>
       <c r="B191" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -5685,7 +5674,7 @@
         <v>396</v>
       </c>
       <c r="B192" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -5693,7 +5682,7 @@
         <v>397</v>
       </c>
       <c r="B193" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -5701,7 +5690,7 @@
         <v>398</v>
       </c>
       <c r="B194" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5709,7 +5698,7 @@
         <v>399</v>
       </c>
       <c r="B195" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -5717,7 +5706,7 @@
         <v>400</v>
       </c>
       <c r="B196" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -5725,7 +5714,7 @@
         <v>401</v>
       </c>
       <c r="B197" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -5733,7 +5722,7 @@
         <v>402</v>
       </c>
       <c r="B198" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -5741,7 +5730,7 @@
         <v>35</v>
       </c>
       <c r="B199" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -5749,7 +5738,7 @@
         <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -5757,7 +5746,7 @@
         <v>404</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
